--- a/biology/Médecine/Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc)/Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc)/Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_et_de_la_Protection_sociale_(Maroc)</t>
+          <t>Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Ministère de la Santé et de la Protection sociale est le département ministériel du gouvernement marocain chargé du système de la santé publique à travers le royaume. Son siège est situé dans le quartier Hassan de Rabat. 
-L'actuel ministre de la Santé est Khalid Aït Taleb[1].
+L'actuel ministre de la Santé est Khalid Aït Taleb.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_et_de_la_Protection_sociale_(Maroc)</t>
+          <t>Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,20 +525,92 @@
           <t>Missions et attributions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le ministère de la Santé est chargé d'élaborer et mettre en œuvre les politiques publiques du Maroc en matière de santé (formation, réglementation, prévention, coopération).   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère de la Santé est chargé d'élaborer et mettre en œuvre les politiques publiques du Maroc en matière de santé (formation, réglementation, prévention, coopération).   
 Le ministère représente le Maroc au niveau des instances internationales de santé comme l'OMS et élabore des statistiques sur la santé de la population.  
 Il assure enfin une tutelle sur plusieurs établissements de santé : Institut Pasteur, École Nationale de la Santé Publique et CHUs. 
-Fonctionnement
-Il est divisé en une administration centrale située à Rabat et une administration territoriale présente sur l'ensemble du territoire marocain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_de_la_Protection_sociale_(Maroc)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missions et attributions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est divisé en une administration centrale située à Rabat et une administration territoriale présente sur l'ensemble du territoire marocain.
 Le ministre travaille notamment avec 
 un chef de cabinet, qui dirige des conseillers
 un secrétaire général
 un inspecteur général
 L'administration centrale se compose de plusieurs divisions et directions. 
-Liste des ministres de la Santé
-Abdelmalek Faraj (Gouvernement Bekkaï I et II et Gouvernement Balafrej)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_de_la_Protection_sociale_(Maroc)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missions et attributions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des ministres de la Santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abdelmalek Faraj (Gouvernement Bekkaï I et II et Gouvernement Balafrej)
 Youssef Belabbès (1958 - 1963)
 Abdelkrim El Khatib (Conseil Hassan II 3) (5 janvier 1963 – 13 novembre 1963)
 Larbi Chraïbi (1963 - 1971)
@@ -543,37 +627,39 @@
 Mohamed Cheikh Biadillah (Gouvernement Jettou I) et (Gouvernement Jettou II)
 Yasmina Baddou (Gouvernement El Fassi)
 Houcine El Ouardi (Gouvernement Benkirane)
-Anas Doukkali (Gouvernement El Othmani )[2]
-Khalid Aït Taleb (Gouvernement El Othmani)[3]
-Nabila Rmili (Gouvernement Akhannouch ) [4] - Khalid Aït Taleb (Gouvernement Akhannouch )</t>
+Anas Doukkali (Gouvernement El Othmani )
+Khalid Aït Taleb (Gouvernement El Othmani)
+Nabila Rmili (Gouvernement Akhannouch )  - Khalid Aït Taleb (Gouvernement Akhannouch )</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_et_de_la_Protection_sociale_(Maroc)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_et_de_la_Protection_sociale_(Maroc)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_et_de_la_Protection_sociale_(Maroc)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Annexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
